--- a/biology/Biochimie/MEAI/MEAI.xlsx
+++ b/biology/Biochimie/MEAI/MEAI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le MEAI est l'un des premiers candidats parmi les médicaments de remplacement de l'alcool qui ont été mis sur le marché à la fin des années 2010, lors d'un mouvement visant à remplacer l'alcool par des alternatives moins toxiques, mené par le psychopharmacologue britannique David Nutt[1],[2],[3]. Dans un acte de journalisme gonzo, Michael Slezak, écrivant pour New Scientist, a essayé et rapporté son expérience avec MEAI[4] MEAI est en cours de préparation pour l'enregistrement auprès de la FDA par Clearmind Medicine Inc (CSE:CMND)[5],[6] La société revendique une large propriété intellectuelle[7],[8],[9],[10].
-Le MEAI (5-méthoxy-2-aminoindane ou 5-MeO-AI ou Chaperon) appartient à la famille des molécules indanes. C'était une drogue récréative et un médicament de prévention de la consommation excessive d'alcool. Sa structure moléculaire a été mentionnée pour la première fois de manière implicite dans un schéma de structure markush apparaissant dans un brevet de 1998[11]. Elle a ensuite été décrite de manière explicite et pharmacologique dans un article revu par des pairs en 2017 par David Nutt et al[12]... suivi d'un autre en février 2018 qui détaillait la pharmacocinétique, la pharmacodynamique et le métabolisme de la MEAI[13]. Un an plus tard, elle a été étudiée et rapportée dans un autre article revu par des pairs[14]. En 2018, une société aux États-Unis a commencé à proposer une boisson à base de MEAI appelée "Pace"[15],[16]. La famille de molécules aminoindane a, peut-être, été décrite chimiquement pour la première fois en 1980[17],[18].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le MEAI est l'un des premiers candidats parmi les médicaments de remplacement de l'alcool qui ont été mis sur le marché à la fin des années 2010, lors d'un mouvement visant à remplacer l'alcool par des alternatives moins toxiques, mené par le psychopharmacologue britannique David Nutt. Dans un acte de journalisme gonzo, Michael Slezak, écrivant pour New Scientist, a essayé et rapporté son expérience avec MEAI MEAI est en cours de préparation pour l'enregistrement auprès de la FDA par Clearmind Medicine Inc (CSE:CMND), La société revendique une large propriété intellectuelle.
+Le MEAI (5-méthoxy-2-aminoindane ou 5-MeO-AI ou Chaperon) appartient à la famille des molécules indanes. C'était une drogue récréative et un médicament de prévention de la consommation excessive d'alcool. Sa structure moléculaire a été mentionnée pour la première fois de manière implicite dans un schéma de structure markush apparaissant dans un brevet de 1998. Elle a ensuite été décrite de manière explicite et pharmacologique dans un article revu par des pairs en 2017 par David Nutt et al... suivi d'un autre en février 2018 qui détaillait la pharmacocinétique, la pharmacodynamique et le métabolisme de la MEAI. Un an plus tard, elle a été étudiée et rapportée dans un autre article revu par des pairs. En 2018, une société aux États-Unis a commencé à proposer une boisson à base de MEAI appelée "Pace",. La famille de molécules aminoindane a, peut-être, été décrite chimiquement pour la première fois en 1980,.
 </t>
         </is>
       </c>
